--- a/biology/Botanique/Liste_des_espèces_du_genre_Panicum/Liste_des_espèces_du_genre_Panicum.xlsx
+++ b/biology/Botanique/Liste_des_espèces_du_genre_Panicum/Liste_des_espèces_du_genre_Panicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Panicum</t>
+          <t>Liste_des_espèces_du_genre_Panicum</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La liste des espèces du genre Panicum comprend près de 450 espèces acceptées.
-Selon la base de données de The Plant List, 1787 espèces de Panicum ont été décrites, dont 442 sont des espèces acceptées, 1147 des synonymes et 198 sont en attente d'évaluation[1].
+Selon la base de données de The Plant List, 1787 espèces de Panicum ont été décrites, dont 442 sont des espèces acceptées, 1147 des synonymes et 198 sont en attente d'évaluation.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Panicum</t>
+          <t>Liste_des_espèces_du_genre_Panicum</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Liste des espèces acceptées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List :
 Sommaire :
 Haut – A
 B
@@ -612,7 +626,7 @@
 Panicum calvum Stapf
 Panicum campestre Nees ex Trin.
 Panicum caparaoense Zuloaga &amp; Morrone
-Panicum capillare L. – witchgrass, tumbleweed[2]
+Panicum capillare L. – witchgrass, tumbleweed
 Panicum capillarioides Vasey
 Panicum caricoides Nees ex Trin.
 Panicum carneovaginatum Renvoize
